--- a/models/model_tuning.xlsx
+++ b/models/model_tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AmyKendig/Dropbox (UFL)/long-term-aquatic-datasets/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF77558C-7711-E249-B0B9-A7EFDF345F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D35A4-AEFA-E94E-B620-2FB191F95AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="6020" windowWidth="28040" windowHeight="17440" xr2:uid="{7DC0E597-B118-1043-AA02-4EFFB9F2ECE9}"/>
+    <workbookView xWindow="31140" yWindow="4420" windowWidth="28040" windowHeight="17440" xr2:uid="{7DC0E597-B118-1043-AA02-4EFFB9F2ECE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>pre_herb_model_1</t>
   </si>
   <si>
-    <t>version 2: non-centered parameterization of lake-level process error</t>
-  </si>
-  <si>
     <t>pre_herb_model_2</t>
+  </si>
+  <si>
+    <t>non-centered parameterization of lake-level process error</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,9 +588,6 @@
       <c r="I5">
         <v>1.07</v>
       </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -621,12 +618,12 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4000</v>
@@ -636,6 +633,24 @@
       </c>
       <c r="D7">
         <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F7">
+        <v>2444</v>
+      </c>
+      <c r="G7">
+        <v>2867</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1.39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
